--- a/biology/Botanique/Phlegmariurus_dentatus/Phlegmariurus_dentatus.xlsx
+++ b/biology/Botanique/Phlegmariurus_dentatus/Phlegmariurus_dentatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phlegmariurus dentatus est une espèce végétale de la famille des Lycopodiaceae, endémique des archipels portugais des Açores et de Madère. C'est un sous-arbuste qui pousse principalement dans le biome subtropical[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phlegmariurus dentatus est une espèce végétale de la famille des Lycopodiaceae, endémique des archipels portugais des Açores et de Madère. C'est un sous-arbuste qui pousse principalement dans le biome subtropical. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux Açores, on le trouve sur les pentes, dans les bois, les forêts et parfois au bord des routes, étant moins exigeant en humidité que Huperzia suberecta (il y a des endroits à Terceira où les deux espèces coexistent). On le trouve sur sept des neuf îles. Dans l'archipel de Madère, on le trouve uniquement sur l'île de Madère[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Açores, on le trouve sur les pentes, dans les bois, les forêts et parfois au bord des routes, étant moins exigeant en humidité que Huperzia suberecta (il y a des endroits à Terceira où les deux espèces coexistent). On le trouve sur sept des neuf îles. Dans l'archipel de Madère, on le trouve uniquement sur l'île de Madère,.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Phlegmariurus dentatus (Herter) Arana[4].
-L'espèce a été initialement classée dans le genre Lycopodium sous le basionyme Lycopodium dentatum Herter[4].
-Phlegmariurus dentatus a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Phlegmariurus dentatus (Herter) Arana.
+L'espèce a été initialement classée dans le genre Lycopodium sous le basionyme Lycopodium dentatum Herter.
+Phlegmariurus dentatus a pour synonymes :
 Huperzia dentata (Herter) Holub
 Huperzia selago dentata (Herter) Valentine
 Lycopodium dentatum Herter
